--- a/C4-2.xlsx
+++ b/C4-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D42C8B4-EEF5-E045-B756-83E7B954B90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377706A0-B93F-C14F-8D1E-32A970523C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="1880" windowWidth="26960" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>B. Une fois</t>
   </si>
   <si>
-    <t>Arthur JANNING</t>
-  </si>
-  <si>
     <t xml:space="preserve">A. Mille fois </t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Faucher</t>
   </si>
   <si>
-    <t>Joey</t>
-  </si>
-  <si>
     <t>Joli</t>
   </si>
   <si>
@@ -238,6 +232,12 @@
   </si>
   <si>
     <t>Lemoalle</t>
+  </si>
+  <si>
+    <t>JANNING</t>
+  </si>
+  <si>
+    <t>david</t>
   </si>
 </sst>
 </file>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -829,7 +829,7 @@
     </row>
     <row r="8" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="9" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>13</v>
@@ -966,12 +966,12 @@
         <v>20</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>13</v>
@@ -1007,7 +1007,7 @@
         <v>15</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>15</v>
@@ -1034,7 +1034,7 @@
         <v>19</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>21</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="11" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -1108,12 +1108,12 @@
         <v>20</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>17</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="13" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
@@ -1190,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>15</v>
@@ -1226,15 +1226,15 @@
         <v>15</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -1255,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>15</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="15" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
@@ -1332,16 +1332,16 @@
         <v>15</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>17</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="16" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -1373,19 +1373,19 @@
         <v>15</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>15</v>
@@ -1421,15 +1421,15 @@
         <v>19</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -1447,7 +1447,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>15</v>
@@ -1492,15 +1492,15 @@
         <v>15</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
@@ -1548,7 +1548,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>16</v>
@@ -1566,12 +1566,12 @@
         <v>20</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>13</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="20" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>13</v>
@@ -1678,7 +1678,7 @@
         <v>18</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>15</v>
@@ -1705,15 +1705,15 @@
         <v>15</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>13</v>
@@ -1779,12 +1779,12 @@
         <v>20</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>13</v>
@@ -1805,7 +1805,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>18</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="23" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>13</v>
@@ -1843,10 +1843,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>14</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="24" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>13</v>
@@ -1875,7 +1875,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>15</v>
@@ -1902,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>17</v>
@@ -1923,12 +1923,12 @@
         <v>20</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>13</v>
@@ -1940,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>14</v>
@@ -1955,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>15</v>
@@ -1964,7 +1964,7 @@
         <v>15</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>17</v>
@@ -1976,7 +1976,7 @@
         <v>17</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R25" s="6" t="s">
         <v>15</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="26" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>13</v>
@@ -1999,7 +1999,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>18</v>
@@ -2011,7 +2011,7 @@
         <v>15</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>14</v>
@@ -2047,15 +2047,15 @@
         <v>15</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>13</v>
@@ -2073,52 +2073,52 @@
         <v>15</v>
       </c>
       <c r="G27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V27" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V27" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>21</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="28" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>13</v>
@@ -2138,7 +2138,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>14</v>
@@ -2156,10 +2156,10 @@
         <v>15</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>15</v>
@@ -2192,12 +2192,12 @@
         <v>20</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>13</v>
@@ -2209,7 +2209,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>15</v>
@@ -2260,15 +2260,15 @@
         <v>15</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>13</v>
@@ -2304,7 +2304,7 @@
         <v>15</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>15</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="31" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>13</v>
@@ -2327,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>14</v>
@@ -2378,15 +2378,15 @@
         <v>19</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W31" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>13</v>
@@ -2401,7 +2401,7 @@
         <v>15</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>15</v>
@@ -2419,10 +2419,10 @@
         <v>15</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>17</v>
@@ -2431,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>18</v>
@@ -2449,15 +2449,15 @@
         <v>15</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W32" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>13</v>
@@ -2490,7 +2490,7 @@
         <v>15</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>16</v>
@@ -2523,12 +2523,12 @@
         <v>20</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>13</v>
@@ -2543,7 +2543,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>14</v>
@@ -2564,7 +2564,7 @@
         <v>16</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>17</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="35" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>13</v>
@@ -2644,15 +2644,15 @@
         <v>19</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>13</v>
@@ -2694,7 +2694,7 @@
         <v>16</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>15</v>
@@ -2718,12 +2718,12 @@
         <v>20</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>13</v>
@@ -2789,12 +2789,12 @@
         <v>20</v>
       </c>
       <c r="W37" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>13</v>
@@ -2815,13 +2815,13 @@
         <v>14</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>15</v>
@@ -2830,7 +2830,7 @@
         <v>15</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>16</v>
@@ -2860,12 +2860,12 @@
         <v>20</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>13</v>
@@ -2910,7 +2910,7 @@
         <v>18</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>16</v>
@@ -2931,12 +2931,12 @@
         <v>20</v>
       </c>
       <c r="W39" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>13</v>
@@ -2999,7 +2999,7 @@
         <v>15</v>
       </c>
       <c r="V40" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W40" s="6" t="s">
         <v>21</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="41" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>13</v>
@@ -3019,7 +3019,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>15</v>
@@ -3043,13 +3043,13 @@
         <v>16</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P41" s="6" t="s">
         <v>18</v>
@@ -3073,12 +3073,12 @@
         <v>20</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>13</v>
@@ -3105,7 +3105,7 @@
         <v>18</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>15</v>
@@ -3114,7 +3114,7 @@
         <v>15</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N42" s="6" t="s">
         <v>15</v>
@@ -3123,10 +3123,10 @@
         <v>15</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R42" s="6" t="s">
         <v>15</v>
@@ -3144,12 +3144,12 @@
         <v>20</v>
       </c>
       <c r="W42" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>13</v>
@@ -3173,7 +3173,7 @@
         <v>15</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>15</v>
@@ -3185,7 +3185,7 @@
         <v>15</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>15</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="44" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>13</v>
@@ -3247,7 +3247,7 @@
         <v>15</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>15</v>
@@ -3256,7 +3256,7 @@
         <v>15</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N44" s="6" t="s">
         <v>15</v>
@@ -3268,7 +3268,7 @@
         <v>17</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R44" s="6" t="s">
         <v>16</v>
@@ -3283,15 +3283,15 @@
         <v>15</v>
       </c>
       <c r="V44" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W44" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>13</v>
@@ -3318,7 +3318,7 @@
         <v>15</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>15</v>
@@ -3354,15 +3354,15 @@
         <v>14</v>
       </c>
       <c r="V45" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W45" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>13</v>
@@ -3377,63 +3377,63 @@
         <v>15</v>
       </c>
       <c r="F46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V46" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V46" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="W46" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>13</v>
@@ -3448,7 +3448,7 @@
         <v>15</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>15</v>
@@ -3469,7 +3469,7 @@
         <v>15</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>17</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="48" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>13</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="49" spans="1:23" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>13</v>
@@ -3566,7 +3566,7 @@
         <v>15</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M49" s="6" t="s">
         <v>16</v>
@@ -3599,12 +3599,12 @@
         <v>20</v>
       </c>
       <c r="W49" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:23" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>13</v>
@@ -3631,7 +3631,7 @@
         <v>15</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>15</v>
@@ -3670,15 +3670,15 @@
         <v>20</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3">
         <v>49.51</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
